--- a/simulation_data/iterative_algorithm/i_error_level_10_percent_water_99.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_10_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.11692964353168</v>
+        <v>90.69291656394844</v>
       </c>
       <c r="D2" t="n">
-        <v>22.29884998741748</v>
+        <v>23.75489979099005</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.71896336860677</v>
+        <v>86.03493442463704</v>
       </c>
       <c r="D3" t="n">
-        <v>27.3968498515277</v>
+        <v>25.92864704632179</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.17241557950931</v>
+        <v>86.55477278363455</v>
       </c>
       <c r="D4" t="n">
-        <v>25.66040067579702</v>
+        <v>25.64194754998691</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.10136350845698</v>
+        <v>86.64956610415173</v>
       </c>
       <c r="D5" t="n">
-        <v>26.55785759062823</v>
+        <v>23.68533472509073</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.47856986733697</v>
+        <v>81.83417339140428</v>
       </c>
       <c r="D6" t="n">
-        <v>25.18639409169265</v>
+        <v>25.6107850248623</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>83.48519899955981</v>
+        <v>86.09027110757911</v>
       </c>
       <c r="D7" t="n">
-        <v>25.11796892583268</v>
+        <v>23.8060455959694</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>81.77290460928012</v>
+        <v>81.74526527548609</v>
       </c>
       <c r="D8" t="n">
-        <v>24.61000118540865</v>
+        <v>22.84162899141712</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>80.13654069450975</v>
+        <v>79.44153889084184</v>
       </c>
       <c r="D9" t="n">
-        <v>28.68985241231832</v>
+        <v>24.80046483987869</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.55180717990525</v>
+        <v>80.0083451838176</v>
       </c>
       <c r="D10" t="n">
-        <v>23.60638327904894</v>
+        <v>22.83230370071582</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>79.49351794940964</v>
+        <v>81.28634399502877</v>
       </c>
       <c r="D11" t="n">
-        <v>27.42041624439971</v>
+        <v>22.99297316714957</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.93126975545009</v>
+        <v>80.25035935670375</v>
       </c>
       <c r="D12" t="n">
-        <v>25.80982069497734</v>
+        <v>23.51495175735765</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.1662087522666</v>
+        <v>75.97650569338401</v>
       </c>
       <c r="D13" t="n">
-        <v>25.5336120371728</v>
+        <v>22.98389430566535</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>74.36952064251852</v>
+        <v>81.40413360970922</v>
       </c>
       <c r="D14" t="n">
-        <v>24.71760594294124</v>
+        <v>28.42353972772877</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>80.01121904920832</v>
+        <v>77.65832663917746</v>
       </c>
       <c r="D15" t="n">
-        <v>26.4136225038434</v>
+        <v>24.64260272012349</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.99744276243992</v>
+        <v>76.30027442980072</v>
       </c>
       <c r="D16" t="n">
-        <v>27.50699420378928</v>
+        <v>24.17647977250293</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.83252046042632</v>
+        <v>72.23746987745537</v>
       </c>
       <c r="D17" t="n">
-        <v>25.03244912354286</v>
+        <v>23.78176249550921</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>72.88937156458175</v>
+        <v>72.85448039194733</v>
       </c>
       <c r="D18" t="n">
-        <v>27.02861191483198</v>
+        <v>23.06680104418616</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.60089702569576</v>
+        <v>77.20991326916823</v>
       </c>
       <c r="D19" t="n">
-        <v>25.89871305699463</v>
+        <v>23.20519149789447</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.70141782537466</v>
+        <v>71.45712963386754</v>
       </c>
       <c r="D20" t="n">
-        <v>26.16633637627218</v>
+        <v>23.44763955427166</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>74.04423630371666</v>
+        <v>73.03380146473839</v>
       </c>
       <c r="D21" t="n">
-        <v>25.20082898017852</v>
+        <v>26.87118923845381</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>73.0760571784151</v>
+        <v>71.54175851516456</v>
       </c>
       <c r="D22" t="n">
-        <v>23.79183895329278</v>
+        <v>26.9182961100841</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>74.7952737831709</v>
+        <v>68.40154674339587</v>
       </c>
       <c r="D23" t="n">
-        <v>22.72214000896342</v>
+        <v>26.14946368660087</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>65.88966768071865</v>
+        <v>66.40034743054504</v>
       </c>
       <c r="D24" t="n">
-        <v>24.80345438520557</v>
+        <v>23.92810810593635</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.2960050869932</v>
+        <v>65.76474095616115</v>
       </c>
       <c r="D25" t="n">
-        <v>28.99417513958023</v>
+        <v>27.2903090550797</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.45591601344299</v>
+        <v>64.81469032062965</v>
       </c>
       <c r="D26" t="n">
-        <v>26.36111116257203</v>
+        <v>22.179872779811</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>62.76031377429429</v>
+        <v>64.38767646341422</v>
       </c>
       <c r="D27" t="n">
-        <v>26.6115594819856</v>
+        <v>23.11066223868475</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>60.62381032080335</v>
+        <v>63.30460201282438</v>
       </c>
       <c r="D28" t="n">
-        <v>25.50457589164396</v>
+        <v>25.28316080801173</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.67328610095609</v>
+        <v>62.6514714874759</v>
       </c>
       <c r="D29" t="n">
-        <v>26.23343257378836</v>
+        <v>23.94041615189736</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.06019477573139</v>
+        <v>63.91198231385848</v>
       </c>
       <c r="D30" t="n">
-        <v>23.3832804230757</v>
+        <v>26.50452683084255</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>58.02670475220955</v>
+        <v>63.75482426601914</v>
       </c>
       <c r="D31" t="n">
-        <v>24.78229594443333</v>
+        <v>25.60444428737947</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.97474112742791</v>
+        <v>59.19627676766218</v>
       </c>
       <c r="D32" t="n">
-        <v>27.87267658778437</v>
+        <v>23.17093451895612</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.42977335325345</v>
+        <v>62.58461930798766</v>
       </c>
       <c r="D33" t="n">
-        <v>23.66564573710261</v>
+        <v>26.96424572116109</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>62.90534133356738</v>
+        <v>60.75085062388533</v>
       </c>
       <c r="D34" t="n">
-        <v>23.97276357232575</v>
+        <v>22.57568042783331</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>59.39272440058994</v>
+        <v>54.03872617264081</v>
       </c>
       <c r="D35" t="n">
-        <v>28.35330168967675</v>
+        <v>23.46621126317145</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.53566502148974</v>
+        <v>51.81420027004005</v>
       </c>
       <c r="D36" t="n">
-        <v>27.30790961990801</v>
+        <v>24.71497241893897</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>60.13768906653559</v>
+        <v>52.74355851931901</v>
       </c>
       <c r="D37" t="n">
-        <v>25.7372388597611</v>
+        <v>23.49687457789669</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>50.79524072143596</v>
+        <v>58.26274687400493</v>
       </c>
       <c r="D38" t="n">
-        <v>26.91072352874758</v>
+        <v>23.58254253534051</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>50.20102643551787</v>
+        <v>51.09643022533538</v>
       </c>
       <c r="D39" t="n">
-        <v>28.24583940779951</v>
+        <v>23.84951643914039</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>54.57594873054171</v>
+        <v>51.57848078632202</v>
       </c>
       <c r="D40" t="n">
-        <v>26.81595076056804</v>
+        <v>22.01595208583457</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>47.92820826968881</v>
+        <v>46.54042773531547</v>
       </c>
       <c r="D41" t="n">
-        <v>26.44989495707191</v>
+        <v>28.85403105057248</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.83326892484791</v>
+        <v>47.60496813321972</v>
       </c>
       <c r="D42" t="n">
-        <v>27.76761583505452</v>
+        <v>26.93467261817698</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>47.26959221011624</v>
+        <v>49.89637265075829</v>
       </c>
       <c r="D43" t="n">
-        <v>29.63013691124808</v>
+        <v>25.6421561625248</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>44.41792126148498</v>
+        <v>46.47856534118267</v>
       </c>
       <c r="D44" t="n">
-        <v>25.79937472762329</v>
+        <v>23.11571370515871</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>43.96264626341918</v>
+        <v>42.55486967418224</v>
       </c>
       <c r="D45" t="n">
-        <v>23.08694323345847</v>
+        <v>25.09769490293858</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>50.0480277287183</v>
+        <v>45.60912473687515</v>
       </c>
       <c r="D46" t="n">
-        <v>25.99173323956207</v>
+        <v>23.49930991786847</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>49.88686201191483</v>
+        <v>43.10522081316554</v>
       </c>
       <c r="D47" t="n">
-        <v>23.72610679525074</v>
+        <v>22.06193644381908</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>48.64174003325816</v>
+        <v>43.79229231644419</v>
       </c>
       <c r="D48" t="n">
-        <v>21.1050700042558</v>
+        <v>24.36746582424802</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>44.21394269525236</v>
+        <v>41.5210920263641</v>
       </c>
       <c r="D49" t="n">
-        <v>25.78163867491566</v>
+        <v>25.51869181771451</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>38.07118581711254</v>
+        <v>42.99650248975576</v>
       </c>
       <c r="D50" t="n">
-        <v>21.8160715553831</v>
+        <v>22.10019140807591</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.65148228374245</v>
+        <v>40.11714230040826</v>
       </c>
       <c r="D51" t="n">
-        <v>26.50429617794979</v>
+        <v>26.57437000021858</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>42.38644683033733</v>
+        <v>32.83138374368757</v>
       </c>
       <c r="D52" t="n">
-        <v>25.03857916122241</v>
+        <v>24.71752417601927</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>40.19206643990837</v>
+        <v>40.87381307523415</v>
       </c>
       <c r="D53" t="n">
-        <v>26.87182866659986</v>
+        <v>24.16433608661385</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.20906027848118</v>
+        <v>33.25112428654165</v>
       </c>
       <c r="D54" t="n">
-        <v>27.54647895799231</v>
+        <v>25.48460803673367</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.0383021437757</v>
+        <v>36.00130296807018</v>
       </c>
       <c r="D55" t="n">
-        <v>28.21636850506399</v>
+        <v>23.79449630242379</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.52283032794375</v>
+        <v>34.6960413341642</v>
       </c>
       <c r="D56" t="n">
-        <v>28.28417391353972</v>
+        <v>24.86667596491884</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.34802901263929</v>
+        <v>33.63589100421886</v>
       </c>
       <c r="D57" t="n">
-        <v>23.40144920717965</v>
+        <v>26.64899171783371</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.7608204087653</v>
+        <v>35.14097382485798</v>
       </c>
       <c r="D58" t="n">
-        <v>25.74160033895454</v>
+        <v>23.21115908580389</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.42028384380231</v>
+        <v>35.14968423644662</v>
       </c>
       <c r="D59" t="n">
-        <v>26.13764675178644</v>
+        <v>26.24059586538907</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.44132606707795</v>
+        <v>35.19012855948451</v>
       </c>
       <c r="D60" t="n">
-        <v>28.20247283032796</v>
+        <v>28.47649931019712</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>32.60399553539419</v>
+        <v>32.52558747732235</v>
       </c>
       <c r="D61" t="n">
-        <v>25.66099511942186</v>
+        <v>26.45702582213528</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>27.28548548591337</v>
+        <v>30.83123161368782</v>
       </c>
       <c r="D62" t="n">
-        <v>23.96996101256096</v>
+        <v>24.62591011081186</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.8137420194547</v>
+        <v>23.97776265548488</v>
       </c>
       <c r="D63" t="n">
-        <v>31.17364375746842</v>
+        <v>24.69039050003735</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>25.52063518093541</v>
+        <v>25.83573423915831</v>
       </c>
       <c r="D64" t="n">
-        <v>27.91258298626606</v>
+        <v>26.81118105295095</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>29.3923253700538</v>
+        <v>21.9812224781312</v>
       </c>
       <c r="D65" t="n">
-        <v>26.11567525062977</v>
+        <v>21.74716732922732</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>20.81920477792402</v>
+        <v>25.37963222335562</v>
       </c>
       <c r="D66" t="n">
-        <v>25.13578572987424</v>
+        <v>26.90637449862376</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.96570097511594</v>
+        <v>23.12799681732425</v>
       </c>
       <c r="D67" t="n">
-        <v>27.26390317566565</v>
+        <v>26.80474818519339</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>26.20604017427126</v>
+        <v>19.28104197845702</v>
       </c>
       <c r="D68" t="n">
-        <v>24.04704665137168</v>
+        <v>27.95091704368158</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.58551668243053</v>
+        <v>27.46501763270698</v>
       </c>
       <c r="D69" t="n">
-        <v>24.10884898438096</v>
+        <v>26.39277617793776</v>
       </c>
     </row>
   </sheetData>
